--- a/data/trans_orig/P34A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Provincia-trans_orig.xlsx
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,6%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,24%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>37,38%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>47,16%</t>
+          <t>46,97%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>34,98%</t>
+          <t>35,2%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>42,77%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>37,99%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,52%</t>
+          <t>50,29%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>45,37%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>54,79%</t>
+          <t>55,04%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -951,7 +951,7 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>50,84%</t>
+          <t>50,96%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>10,58%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>11,82%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,3%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>33,16%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>41,09%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>33,5%</t>
+          <t>33,36%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>40,1%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>33,17%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,86%</t>
+          <t>43,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>48,94%</t>
+          <t>49,17%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>56,66%</t>
+          <t>56,87%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>42,6%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>49,39%</t>
+          <t>49,16%</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>16,56%</t>
         </is>
       </c>
     </row>
@@ -1480,12 +1480,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>15,19%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,28%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>33,4%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>42,24%</t>
+          <t>41,91%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>32,04%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>38,71%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>31,47%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,64%</t>
+          <t>42,06%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>35,35%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>44,38%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>35,13%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
+          <t>41,46%</t>
         </is>
       </c>
     </row>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>10,73%</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>13,4%</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
         <v>134</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>133612</v>
+        <v>133611</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1910,12 +1910,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>49,39%</t>
+          <t>48,35%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>41,93%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>40,66%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>49,68%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>27,68%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>45,28%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>32,42%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>41,5%</t>
+          <t>40,96%</t>
         </is>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
         <v>291</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>321613</v>
+        <v>321612</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2198,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2219,12 +2219,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,84%</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>63,9%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>76,74%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>85,92%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>73,47%</t>
+          <t>73,22%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>80,71%</t>
+          <t>80,64%</t>
         </is>
       </c>
     </row>
@@ -2340,12 +2340,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>14,7%</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -2557,12 +2557,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2599,12 +2599,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>16,16%</t>
         </is>
       </c>
     </row>
@@ -2628,12 +2628,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>34,14%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>43,97%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>42,24%</t>
+          <t>42,99%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>52,28%</t>
+          <t>52,66%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2670,12 +2670,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>46,93%</t>
         </is>
       </c>
     </row>
@@ -2699,12 +2699,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>35,27%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>46,19%</t>
+          <t>46,25%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2720,12 +2720,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>47,03%</t>
+          <t>46,8%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>37,86%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>44,87%</t>
+          <t>45,41%</t>
         </is>
       </c>
     </row>
@@ -2845,12 +2845,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2887,12 +2887,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>12,98%</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
         <v>55</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>69725</v>
+        <v>69724</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
@@ -2916,12 +2916,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>11,13%</t>
         </is>
       </c>
     </row>
@@ -2987,12 +2987,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>41,69%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>51,78%</t>
+          <t>50,96%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>39,3%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>66,71%</t>
+          <t>67,76%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3029,12 +3029,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>42,59%</t>
+          <t>42,55%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>62,88%</t>
         </is>
       </c>
     </row>
@@ -3058,12 +3058,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3079,12 +3079,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>42,16%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3100,12 +3100,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>36,07%</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
         <v>594</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>622442</v>
+        <v>622441</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
@@ -3204,12 +3204,12 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
@@ -3225,12 +3225,12 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="M39" s="2" t="n">
@@ -3246,12 +3246,12 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,76%</t>
         </is>
       </c>
     </row>
@@ -3275,12 +3275,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3296,12 +3296,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -3346,12 +3346,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>39,57%</t>
+          <t>39,52%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>55,35%</t>
+          <t>55,72%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>47,83%</t>
+          <t>47,68%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>54,52%</t>
+          <t>54,19%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3388,12 +3388,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>44,93%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>53,27%</t>
+          <t>53,16%</t>
         </is>
       </c>
     </row>
@@ -3417,12 +3417,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>33,16%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3438,12 +3438,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>38,97%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>28,59%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>34,98%</t>
         </is>
       </c>
     </row>
@@ -3563,12 +3563,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3605,12 +3605,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,23%</t>
         </is>
       </c>
     </row>
@@ -3634,12 +3634,12 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
@@ -3676,12 +3676,12 @@
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>10,05%</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>40,51%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3726,12 +3726,12 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>45,66%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>52,72%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3747,12 +3747,12 @@
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>43,71%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>48,11%</t>
         </is>
       </c>
     </row>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>40,84%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3818,12 +3818,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>37,35%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P34A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Provincia-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>13,51%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>6,31%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,48%</t>
+          <t>41,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,38%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>46,97%</t>
+          <t>47,16%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>34,98%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>42,77%</t>
+          <t>42,57%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,29%</t>
+          <t>49,52%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,37%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>55,04%</t>
+          <t>54,79%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -951,7 +951,7 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>50,96%</t>
+          <t>50,84%</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>7,25%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>10,46%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>12,05%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>30,78%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,25%</t>
+          <t>41,3%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>41,09%</t>
+          <t>40,66%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>40,1%</t>
+          <t>39,96%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>33,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>43,86%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>49,17%</t>
+          <t>48,94%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>56,87%</t>
+          <t>56,66%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>42,6%</t>
+          <t>42,68%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>49,16%</t>
+          <t>49,39%</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1430,12 +1430,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>16,54%</t>
         </is>
       </c>
     </row>
@@ -1480,12 +1480,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1522,12 +1522,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>15,43%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>27,83%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,3%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>41,91%</t>
+          <t>42,24%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>38,46%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>31,96%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,06%</t>
+          <t>42,64%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>35,37%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>44,14%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>35,13%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>41,74%</t>
         </is>
       </c>
     </row>
@@ -1768,12 +1768,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1810,12 +1810,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>10,98%</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>20,74%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,92%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>13,9%</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
         <v>134</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>133611</v>
+        <v>133612</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1910,12 +1910,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>35,38%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>49,39%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>41,93%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>49,68%</t>
+          <t>49,29%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>41,14%</t>
+          <t>40,2%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>33,26%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>45,28%</t>
+          <t>45,07%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>32,42%</t>
+          <t>32,48%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>41,5%</t>
         </is>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
         <v>291</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>321612</v>
+        <v>321613</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
@@ -2127,12 +2127,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2148,12 +2148,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>9,17%</t>
         </is>
       </c>
     </row>
@@ -2198,12 +2198,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2219,12 +2219,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2240,12 +2240,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,75%</t>
         </is>
       </c>
     </row>
@@ -2269,12 +2269,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>63,9%</t>
+          <t>64,65%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>76,74%</t>
+          <t>76,94%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>85,92%</t>
+          <t>85,71%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>73,22%</t>
+          <t>73,47%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>80,64%</t>
+          <t>80,71%</t>
         </is>
       </c>
     </row>
@@ -2340,12 +2340,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,8%</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2486,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,13%</t>
         </is>
       </c>
     </row>
@@ -2557,12 +2557,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2599,12 +2599,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>16,07%</t>
         </is>
       </c>
     </row>
@@ -2628,12 +2628,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>33,82%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>43,97%</t>
+          <t>44,07%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>42,24%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>52,66%</t>
+          <t>52,28%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2670,12 +2670,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>46,93%</t>
+          <t>46,94%</t>
         </is>
       </c>
     </row>
@@ -2699,12 +2699,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>35,28%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>46,25%</t>
+          <t>46,19%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2720,12 +2720,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>37,16%</t>
+          <t>36,91%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>46,8%</t>
+          <t>47,03%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>37,49%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>44,87%</t>
         </is>
       </c>
     </row>
@@ -2845,12 +2845,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2887,12 +2887,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>13,0%</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
         <v>55</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>69724</v>
+        <v>69725</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
@@ -2916,12 +2916,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>11,09%</t>
         </is>
       </c>
     </row>
@@ -2987,12 +2987,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>42,49%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>50,96%</t>
+          <t>51,78%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3008,12 +3008,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>39,3%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>67,76%</t>
+          <t>66,71%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3029,12 +3029,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>42,55%</t>
+          <t>42,59%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>62,88%</t>
+          <t>62,26%</t>
         </is>
       </c>
     </row>
@@ -3058,12 +3058,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3079,12 +3079,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>22,67%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>42,16%</t>
+          <t>42,09%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3100,12 +3100,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>36,21%</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
         <v>594</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>622441</v>
+        <v>622442</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
@@ -3204,12 +3204,12 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
@@ -3225,12 +3225,12 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="M39" s="2" t="n">
@@ -3246,12 +3246,12 @@
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>12,59%</t>
         </is>
       </c>
     </row>
@@ -3275,12 +3275,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3296,12 +3296,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -3346,12 +3346,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>39,52%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>55,72%</t>
+          <t>55,35%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>47,68%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>54,19%</t>
+          <t>54,52%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3388,12 +3388,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>44,93%</t>
+          <t>44,71%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>53,16%</t>
+          <t>53,27%</t>
         </is>
       </c>
     </row>
@@ -3417,12 +3417,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3438,12 +3438,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>32,27%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>38,97%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>34,98%</t>
+          <t>34,96%</t>
         </is>
       </c>
     </row>
@@ -3563,12 +3563,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3605,12 +3605,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,24%</t>
         </is>
       </c>
     </row>
@@ -3634,12 +3634,12 @@
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
@@ -3676,12 +3676,12 @@
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>10,13%</t>
         </is>
       </c>
     </row>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>45,65%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3726,12 +3726,12 @@
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>45,66%</t>
+          <t>45,51%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>52,65%</t>
+          <t>52,72%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3747,12 +3747,12 @@
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>43,71%</t>
+          <t>43,83%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>48,11%</t>
+          <t>48,33%</t>
         </is>
       </c>
     </row>
@@ -3776,12 +3776,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>30,61%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>35,53%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>40,84%</t>
+          <t>41,15%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3818,12 +3818,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>37,29%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P34A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Provincia-trans_orig.xlsx
@@ -682,63 +682,63 @@
         <v>33</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>39662</v>
+        <v>55380</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
         <v>21</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>13449</v>
+        <v>15057</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
         <v>54</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>53111</v>
+        <v>70437</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>16,73%</t>
         </is>
       </c>
     </row>
@@ -753,63 +753,63 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>13845</v>
+        <v>17025</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
         <v>10</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>7587</v>
+        <v>8877</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
         <v>27</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>21432</v>
+        <v>25902</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>7,41%</t>
         </is>
       </c>
     </row>
@@ -824,63 +824,63 @@
         <v>127</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>92968</v>
+        <v>107398</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>34,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,96%</t>
+          <t>28,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,99%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
         <v>235</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>114219</v>
+        <v>120103</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>42,08%</t>
+          <t>41,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>47,16%</t>
+          <t>46,66%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
         <v>362</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>207186</v>
+        <v>227501</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>38,97%</t>
+          <t>37,85%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>34,98%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>41,8%</t>
         </is>
       </c>
     </row>
@@ -895,63 +895,63 @@
         <v>154</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>113823</v>
+        <v>131640</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>42,27%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,52%</t>
+          <t>48,8%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
         <v>272</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>136148</v>
+        <v>145597</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,16%</t>
+          <t>50,27%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>45,07%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>54,79%</t>
+          <t>55,1%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
         <v>426</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>249970</v>
+        <v>277237</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>47,01%</t>
+          <t>46,12%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>50,84%</t>
+          <t>50,28%</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
         <v>331</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         <v>538</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>869</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
@@ -1041,63 +1041,63 @@
         <v>39</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>59201</v>
+        <v>59137</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
         <v>35</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>28749</v>
+        <v>26614</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
         <v>74</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>87950</v>
+        <v>85751</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>10,69%</t>
         </is>
       </c>
     </row>
@@ -1112,63 +1112,63 @@
         <v>36</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>71690</v>
+        <v>76390</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
         <v>31</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>28216</v>
+        <v>26487</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
         <v>67</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>99906</v>
+        <v>102876</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>12,95%</t>
         </is>
       </c>
     </row>
@@ -1183,63 +1183,63 @@
         <v>146</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>186826</v>
+        <v>185316</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>30,56%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,3%</t>
+          <t>41,31%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
         <v>258</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>204250</v>
+        <v>190022</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>33,14%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>40,74%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
         <v>404</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>391076</v>
+        <v>375338</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>33,5%</t>
+          <t>33,3%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>39,78%</t>
         </is>
       </c>
     </row>
@@ -1254,63 +1254,63 @@
         <v>160</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>200119</v>
+        <v>196051</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>38,65%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>32,64%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,86%</t>
+          <t>43,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
         <v>392</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>292730</v>
+        <v>271267</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>52,84%</t>
+          <t>52,74%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>48,94%</t>
+          <t>48,86%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>56,66%</t>
+          <t>56,56%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
         <v>552</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>492849</v>
+        <v>467318</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>45,98%</t>
+          <t>45,31%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>42,68%</t>
+          <t>41,97%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>49,39%</t>
+          <t>49,05%</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
         <v>381</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>517836</v>
+        <v>516894</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>716</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>553945</v>
+        <v>514390</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>1097</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1071781</v>
+        <v>1031284</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
@@ -1400,37 +1400,37 @@
         <v>39</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>37680</v>
+        <v>37266</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
         <v>76</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>58333</v>
+        <v>54503</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1442,7 +1442,7 @@
         <v>115</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>96013</v>
+        <v>91769</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
@@ -1451,12 +1451,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>16,61%</t>
         </is>
       </c>
     </row>
@@ -1471,63 +1471,63 @@
         <v>52</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>60433</v>
+        <v>61533</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
         <v>29</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>26066</v>
+        <v>24545</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
         <v>81</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>86499</v>
+        <v>86078</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>16,1%</t>
         </is>
       </c>
     </row>
@@ -1542,63 +1542,63 @@
         <v>135</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>104887</v>
+        <v>101095</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32,55%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,28%</t>
+          <t>36,72%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
         <v>209</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>140886</v>
+        <v>132230</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>37,74%</t>
+          <t>37,87%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>33,76%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>42,24%</t>
+          <t>42,48%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
         <v>344</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>245773</v>
+        <v>233325</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>38,19%</t>
         </is>
       </c>
     </row>
@@ -1613,63 +1613,63 @@
         <v>134</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>119240</v>
+        <v>116156</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>36,75%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>31,69%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,64%</t>
+          <t>42,47%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
         <v>222</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>147998</v>
+        <v>137850</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>39,48%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>35,27%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
         <v>356</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>267238</v>
+        <v>254006</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>35,13%</t>
+          <t>34,89%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
+          <t>41,51%</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
         <v>360</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>536</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>896</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
@@ -1759,63 +1759,63 @@
         <v>28</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>32786</v>
+        <v>31119</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
         <v>31</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>27154</v>
+        <v>24567</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
         <v>59</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>59940</v>
+        <v>55687</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>9,83%</t>
         </is>
       </c>
     </row>
@@ -1830,63 +1830,63 @@
         <v>36</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>46600</v>
+        <v>44764</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>14,35%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
         <v>36</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>31992</v>
+        <v>29423</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
         <v>72</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>78592</v>
+        <v>74188</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>13,0%</t>
         </is>
       </c>
     </row>
@@ -1901,63 +1901,63 @@
         <v>134</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>133612</v>
+        <v>127996</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
+          <t>41,03%</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>49,39%</t>
+          <t>48,68%</t>
         </is>
       </c>
       <c r="H21" s="2" t="n">
         <v>293</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>202388</v>
+        <v>243356</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>47,23%</t>
+          <t>51,16%</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>41,93%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>54,07%</t>
+          <t>70,61%</t>
         </is>
       </c>
       <c r="M21" s="2" t="n">
         <v>427</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>336000</v>
+        <v>371351</v>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>49,29%</t>
+          <t>61,58%</t>
         </is>
       </c>
     </row>
@@ -1972,63 +1972,63 @@
         <v>93</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>108615</v>
+        <v>108087</v>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>33,77%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>41,86%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
         <v>239</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>167022</v>
+        <v>178372</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>38,97%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
         <v>332</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>275637</v>
+        <v>286458</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>36,37%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>41,5%</t>
+          <t>44,24%</t>
         </is>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
         <v>291</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>321613</v>
+        <v>311966</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>599</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         <v>890</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>750169</v>
+        <v>787684</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
@@ -2118,63 +2118,63 @@
         <v>21</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>23115</v>
+        <v>20302</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>11,75%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
         <v>7</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>3752</v>
+        <v>3309</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
         <v>28</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>26868</v>
+        <v>23611</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>8,84%</t>
         </is>
       </c>
     </row>
@@ -2189,63 +2189,63 @@
         <v>16</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>13657</v>
+        <v>12444</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
         <v>8</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>5343</v>
+        <v>4682</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
         <v>24</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>19000</v>
+        <v>17126</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,71%</t>
         </is>
       </c>
     </row>
@@ -2260,63 +2260,63 @@
         <v>212</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>140427</v>
+        <v>128387</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>71,37%</t>
+          <t>71,83%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>65,14%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>76,94%</t>
+          <t>77,21%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
         <v>404</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>190089</v>
+        <v>171431</v>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>82,26%</t>
+          <t>82,46%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>78,28%</t>
+          <t>78,76%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>85,84%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
         <v>616</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>330515</v>
+        <v>299818</v>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>77,25%</t>
+          <t>77,54%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>73,47%</t>
+          <t>73,97%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>80,71%</t>
+          <t>81,01%</t>
         </is>
       </c>
     </row>
@@ -2331,63 +2331,63 @@
         <v>30</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>19549</v>
+        <v>17608</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
         <v>71</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>31909</v>
+        <v>28476</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
         <v>101</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>51458</v>
+        <v>46084</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>14,61%</t>
         </is>
       </c>
     </row>
@@ -2402,7 +2402,7 @@
         <v>279</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>490</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>231093</v>
+        <v>207897</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>769</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>427841</v>
+        <v>386639</v>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
@@ -2477,28 +2477,28 @@
         <v>11</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>11977</v>
+        <v>11612</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>996</v>
+        <v>918</v>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
@@ -2512,28 +2512,28 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
         <v>12</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>12972</v>
+        <v>12531</v>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>4,21%</t>
         </is>
       </c>
     </row>
@@ -2548,32 +2548,32 @@
         <v>41</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45847</v>
+        <v>45747</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
         <v>34</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>26662</v>
+        <v>24881</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
@@ -2583,28 +2583,28 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
         <v>75</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>72509</v>
+        <v>70628</v>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>16,51%</t>
         </is>
       </c>
     </row>
@@ -2619,63 +2619,63 @@
         <v>166</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>107570</v>
+        <v>103286</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>38,8%</t>
+          <t>38,31%</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>43,6%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
         <v>232</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>131201</v>
+        <v>122280</v>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>47,57%</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>42,24%</t>
+          <t>42,35%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>52,28%</t>
+          <t>52,27%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
         <v>398</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>238770</v>
+        <v>225566</v>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>42,83%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>39,67%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>46,59%</t>
         </is>
       </c>
     </row>
@@ -2690,37 +2690,37 @@
         <v>153</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>111830</v>
+        <v>108991</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>46,19%</t>
+          <t>46,35%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
         <v>193</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>116763</v>
+        <v>108977</v>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>42,39%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>36,82%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
@@ -2732,21 +2732,21 @@
         <v>346</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>228593</v>
+        <v>217968</v>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>41,35%</t>
+          <t>41,38%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>44,87%</t>
+          <t>44,98%</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
         <v>371</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>460</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>831</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
@@ -2836,63 +2836,63 @@
         <v>71</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>85130</v>
+        <v>84085</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>13,58%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
         <v>91</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>69731</v>
+        <v>64286</v>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
         <v>162</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>154862</v>
+        <v>148371</v>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>12,61%</t>
         </is>
       </c>
     </row>
@@ -2907,63 +2907,63 @@
         <v>55</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>69725</v>
+        <v>71307</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
         <v>67</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>57576</v>
+        <v>53270</v>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
         <v>122</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>127300</v>
+        <v>124577</v>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>10,92%</t>
         </is>
       </c>
     </row>
@@ -2978,63 +2978,63 @@
         <v>287</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>290120</v>
+        <v>289444</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>46,61%</t>
+          <t>46,74%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>42,31%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>51,78%</t>
+          <t>52,16%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
         <v>414</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>391121</v>
+        <v>466409</v>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>55,17%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>39,3%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>66,71%</t>
+          <t>76,85%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
         <v>701</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>681242</v>
+        <v>755853</v>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>47,9%</t>
+          <t>51,6%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>42,59%</t>
+          <t>42,79%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>70,82%</t>
         </is>
       </c>
     </row>
@@ -3049,63 +3049,63 @@
         <v>181</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>177467</v>
+        <v>174486</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
         <v>381</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>281325</v>
+        <v>261424</v>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>30,92%</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>15,04%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>41,97%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
         <v>562</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>458792</v>
+        <v>435910</v>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>29,76%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>35,71%</t>
         </is>
       </c>
     </row>
@@ -3120,7 +3120,7 @@
         <v>594</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>622442</v>
+        <v>619322</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>953</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>799753</v>
+        <v>845390</v>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>1547</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>1422195</v>
+        <v>1464712</v>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
@@ -3195,63 +3195,63 @@
         <v>89</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>124358</v>
+        <v>102614</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>11,08%</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
         <v>68</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>60360</v>
+        <v>49652</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="M39" s="2" t="n">
         <v>157</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>184719</v>
+        <v>152266</v>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>11,53%</t>
         </is>
       </c>
     </row>
@@ -3266,63 +3266,63 @@
         <v>87</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>101698</v>
+        <v>85562</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
         <v>64</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>54609</v>
+        <v>44909</v>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
         <v>151</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>156307</v>
+        <v>130470</v>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>9,93%</t>
         </is>
       </c>
     </row>
@@ -3337,63 +3337,63 @@
         <v>328</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>380562</v>
+        <v>525235</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>44,41%</t>
+          <t>56,69%</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>39,57%</t>
+          <t>40,21%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>55,35%</t>
+          <t>79,41%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
         <v>530</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>440139</v>
+        <v>364426</v>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>50,94%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>47,83%</t>
+          <t>48,01%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>54,52%</t>
+          <t>54,55%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
         <v>858</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>820702</v>
+        <v>889661</v>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>47,69%</t>
+          <t>54,23%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>45,38%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>53,27%</t>
+          <t>71,66%</t>
         </is>
       </c>
     </row>
@@ -3408,32 +3408,32 @@
         <v>256</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>250232</v>
+        <v>213083</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>32,12%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
         <v>397</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>308962</v>
+        <v>255049</v>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>35,72%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
@@ -3443,28 +3443,28 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>38,89%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
         <v>653</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>559194</v>
+        <v>468132</v>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>29,01%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>34,33%</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
         <v>760</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>856850</v>
+        <v>926493</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
@@ -3500,7 +3500,7 @@
         <v>1059</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>864071</v>
+        <v>714036</v>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>1819</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1720921</v>
+        <v>1640529</v>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
@@ -3554,63 +3554,63 @@
         <v>331</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>413909</v>
+        <v>401516</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
         <v>330</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>262526</v>
+        <v>238907</v>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
         <v>661</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>676435</v>
+        <v>640422</v>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>9,93%</t>
         </is>
       </c>
     </row>
@@ -3625,63 +3625,63 @@
         <v>340</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>423494</v>
+        <v>414771</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
         <v>279</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>238051</v>
+        <v>217074</v>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
         <v>619</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>661545</v>
+        <v>631845</v>
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>9,91%</t>
         </is>
       </c>
     </row>
@@ -3696,63 +3696,63 @@
         <v>1535</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>1436970</v>
+        <v>1568158</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>45,45%</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>40,7%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>56,98%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
         <v>2575</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>1814294</v>
+        <v>1810256</v>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>47,77%</t>
+          <t>49,55%</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>45,51%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>52,72%</t>
+          <t>57,53%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
         <v>4110</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>3251264</v>
+        <v>3378413</v>
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>44,29%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>48,33%</t>
+          <t>54,09%</t>
         </is>
       </c>
     </row>
@@ -3767,63 +3767,63 @@
         <v>1161</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>1100874</v>
+        <v>1066102</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>33,86%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
         <v>2167</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>1482857</v>
+        <v>1387012</v>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>37,97%</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>41,39%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
         <v>3328</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>2583731</v>
+        <v>2453114</v>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>37,29%</t>
+          <t>36,85%</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
         <v>3367</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>3375248</v>
+        <v>3450546</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>5351</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>3797728</v>
+        <v>3653248</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         <v>8718</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>7172976</v>
+        <v>7103794</v>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/P34A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Provincia-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +532,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
+          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre / solo 2023 en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +556,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -584,65 +596,95 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
@@ -666,79 +708,127 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>55380</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>55380</t>
+        </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>36926</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>83274</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>17,78%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>12,42%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>25,92%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>15057</v>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11,86%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26,74%</t>
+        </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15057</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8780</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>24885</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>5,2%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>3,15%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>8,6%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>70437</v>
-      </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>70437</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>50918</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>100766</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
           <t>11,72%</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>8,43%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>16,73%</t>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>8,47%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>16,76%</t>
         </is>
       </c>
     </row>
@@ -746,70 +836,112 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>17025</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17025</t>
+        </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>9457</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>33803</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>5,47%</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,95%</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>11,22%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>8877</v>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3,04%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8877</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4172</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>19089</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>3,07%</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="O5" s="2" t="inlineStr">
         <is>
           <t>1,44%</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>7,21%</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>25902</v>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>25902</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>15969</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>43219</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
         <is>
           <t>4,31%</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
+      <c r="V5" s="2" t="inlineStr">
         <is>
           <t>2,66%</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>7,41%</t>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>7,19%</t>
         </is>
       </c>
     </row>
@@ -817,70 +949,112 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>127</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>107398</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>107398</t>
+        </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>88882</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>127816</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>34,48%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>28,49%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>41,1%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>235</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>120103</v>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>28,54%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>41,04%</t>
+        </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>120103</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>105234</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>133031</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>41,47%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>36,63%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>46,66%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>362</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>227501</v>
-      </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
+          <t>36,33%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>45,93%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>227501</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>204955</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>251568</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
           <t>37,85%</t>
         </is>
       </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>33,55%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>41,8%</t>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>34,1%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>41,85%</t>
         </is>
       </c>
     </row>
@@ -888,70 +1062,112 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>154</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>131640</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>105881</t>
+        </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>87091</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>124532</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,8%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>272</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>145597</v>
+          <t>34,0%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>27,96%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>39,99%</t>
+        </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>50,27%</t>
+          <t>181</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>91070</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>55,1%</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>426</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>277237</v>
+          <t>77827</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>103761</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>31,44%</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>46,12%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>35,82%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>50,28%</t>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>196950</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>175522</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>220122</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>32,77%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>29,2%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>36,62%</t>
         </is>
       </c>
     </row>
@@ -959,216 +1175,342 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>331</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>311443</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25759</t>
+        </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>16634</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>43710</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>538</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>289635</v>
+          <t>8,27%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14,03%</t>
+        </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>54528</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>869</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>601077</v>
+          <t>43865</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>69869</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>18,83%</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>80287</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>64252</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>101114</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>13,36%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>10,69%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>16,82%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Cadiz</t>
-        </is>
-      </c>
+      <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>59137</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>311443</t>
+        </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>311443</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>311443</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>26614</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>538</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>289635</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>85751</v>
+          <t>289635</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>289635</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>869</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>601077</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>601077</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>601077</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>76390</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>59137</t>
+        </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>41804</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>79130</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>26487</v>
+          <t>11,44%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8,09%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15,31%</t>
+        </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>26614</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>102876</v>
+          <t>19309</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>37532</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5,17%</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>85751</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>66191</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>108540</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
         </is>
       </c>
     </row>
@@ -1176,70 +1518,112 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>146</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>185316</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>76390</t>
+        </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,85%</t>
+          <t>51261</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>105452</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,31%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>258</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>190022</v>
+          <t>14,78%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20,4%</t>
+        </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>26487</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>404</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>375338</v>
+          <t>17865</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>38969</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>102876</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>77726</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>133698</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>12,96%</t>
         </is>
       </c>
     </row>
@@ -1247,70 +1631,112 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>160</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>196051</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>185316</t>
+        </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>37,93%</t>
+          <t>158050</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>213417</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>392</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>271267</v>
+          <t>35,85%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30,58%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41,29%</t>
+        </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>52,74%</t>
+          <t>258</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>48,86%</t>
+          <t>190022</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>56,56%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>552</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>467318</v>
+          <t>170788</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>212193</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>36,94%</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>33,2%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>41,97%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>49,05%</t>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>375338</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>341141</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>411370</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>36,4%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>33,08%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>39,89%</t>
         </is>
       </c>
     </row>
@@ -1318,145 +1744,225 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>381</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>516894</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>88319</t>
+        </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>69410</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>111749</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>716</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>514390</v>
+          <t>17,09%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13,43%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21,62%</t>
+        </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>99056</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>1097</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>1031284</v>
+          <t>82986</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>114735</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19,26%</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>187374</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>165214</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>213711</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>18,17%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>20,72%</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Cordoba</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>37266</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>107733</t>
+        </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>85099</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>133196</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>54503</v>
+          <t>20,84%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16,46%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>25,77%</t>
+        </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>237</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>172212</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>91769</v>
+          <t>151944</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>191369</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>33,48%</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>37,2%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>279944</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>250687</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>314079</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>27,15%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>24,31%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>30,46%</t>
         </is>
       </c>
     </row>
@@ -1464,141 +1970,229 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>61533</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>516894</t>
+        </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>516894</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>516894</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>24545</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>716</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>514390</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>86078</v>
+          <t>514390</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>514390</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>1097</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1031284</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1031284</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>1031284</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>135</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>101095</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>37266</t>
+        </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>27196</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>51122</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>36,72%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>209</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>132230</v>
+          <t>11,79%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>16,18%</t>
+        </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>37,87%</t>
+          <t>76</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>54503</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>344</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>233325</v>
+          <t>43656</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>67787</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>15,61%</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>38,19%</t>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>91769</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>76394</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>110201</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>13,8%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>11,48%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>16,57%</t>
         </is>
       </c>
     </row>
@@ -1606,70 +2200,112 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>116156</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>61533</t>
+        </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>36,75%</t>
+          <t>47976</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>78819</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>222</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>137850</v>
+          <t>19,47%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15,18%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24,94%</t>
+        </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>39,48%</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>24545</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>356</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>254006</v>
+          <t>16869</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>35932</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>7,03%</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>38,19%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>34,89%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>86078</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>68147</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>104968</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>12,94%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>10,24%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>15,78%</t>
         </is>
       </c>
     </row>
@@ -1677,145 +2313,225 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>360</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>316050</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>101095</t>
+        </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>87040</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>117580</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>536</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>349128</v>
+          <t>31,99%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>27,54%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>37,2%</t>
+        </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>209</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>132230</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>896</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>665178</v>
+          <t>117223</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>148006</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>37,87%</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33,58%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>42,39%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>233325</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>211919</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>256396</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>35,08%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>31,86%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>38,55%</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Granada</t>
-        </is>
-      </c>
+      <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>31119</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>48360</t>
+        </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>36132</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>60458</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>24567</v>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>11,43%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>19,13%</t>
+        </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>61944</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>55687</v>
+          <t>51597</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>74338</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>17,74%</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>110304</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>94047</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>127725</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>16,58%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>14,14%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>19,2%</t>
         </is>
       </c>
     </row>
@@ -1823,70 +2539,112 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>44764</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>67796</t>
+        </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>54380</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>83524</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>29423</v>
+          <t>21,45%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>17,21%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>26,43%</t>
+        </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>75906</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>74188</v>
+          <t>64361</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>89597</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>21,74%</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>143702</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>125030</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>164780</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>21,6%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>18,8%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>24,77%</t>
         </is>
       </c>
     </row>
@@ -1894,141 +2652,229 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>127996</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>316050</t>
+        </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>41,03%</t>
+          <t>316050</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>34,95%</t>
+          <t>316050</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>48,68%</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>293</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>243356</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>51,16%</t>
+          <t>536</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>40,03%</t>
+          <t>349128</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>70,61%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>427</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>371351</v>
+          <t>349128</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>349128</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>47,14%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>61,58%</t>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>665178</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>665178</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>665178</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>108087</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>31119</t>
+        </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>20343</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27,65%</t>
+          <t>47917</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>239</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>178372</v>
+          <t>9,98%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>15,36%</t>
+        </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>24567</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>49,26%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>332</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>286458</v>
+          <t>13692</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>37143</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>44,24%</t>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>55687</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>38991</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>79225</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
         </is>
       </c>
     </row>
@@ -2036,145 +2882,225 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>291</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>311966</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>44764</t>
+        </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>31450</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>62554</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>599</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>475718</v>
+          <t>14,35%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>10,08%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>20,05%</t>
+        </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>29423</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>890</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>787684</v>
+          <t>17265</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>45267</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>6,19%</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>74188</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>51290</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>100272</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>9,42%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>6,51%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>12,73%</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Huelva</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>20302</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>127996</t>
+        </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>108748</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>151083</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>3309</v>
+          <t>41,03%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>34,86%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>48,43%</t>
+        </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>293</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>243356</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>23611</v>
+          <t>189173</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>331755</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>51,16%</t>
+        </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>39,77%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>69,74%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>371351</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>316003</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>484396</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>47,14%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>40,12%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>61,5%</t>
         </is>
       </c>
     </row>
@@ -2182,70 +3108,112 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>12444</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>79652</t>
+        </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>62054</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>106222</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>4682</v>
+          <t>25,53%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>19,89%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>34,05%</t>
+        </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>130335</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>17126</v>
+          <t>84346</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>202470</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>27,4%</t>
+        </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>209987</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>156614</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>292545</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>26,66%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>19,88%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>37,14%</t>
         </is>
       </c>
     </row>
@@ -2253,70 +3221,112 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>212</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>128387</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>28435</t>
+        </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>71,83%</t>
+          <t>18460</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>65,14%</t>
+          <t>44029</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>77,21%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>404</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>171431</v>
+          <t>9,11%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>14,11%</t>
+        </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>82,46%</t>
+          <t>80</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>78,76%</t>
+          <t>48037</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>85,84%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>616</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>299818</v>
+          <t>29376</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>66504</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>10,1%</t>
+        </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>77,54%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>73,97%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>81,01%</t>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>76472</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>54332</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>99756</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>9,71%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>6,9%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>12,66%</t>
         </is>
       </c>
     </row>
@@ -2324,216 +3334,342 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>17608</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>311966</t>
+        </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>311966</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>311966</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>28476</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>599</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>475718</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>101</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>46084</v>
+          <t>475718</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>475718</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>890</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>787684</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>787684</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>787684</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>279</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>178742</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>20302</t>
+        </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>12490</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>30437</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>490</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>207897</v>
+          <t>11,36%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>6,99%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>17,03%</t>
+        </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3309</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>769</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>386639</v>
+          <t>1242</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>7766</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>23611</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>15637</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>35018</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Jaen</t>
-        </is>
-      </c>
+      <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>11612</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>12444</t>
+        </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>7117</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>20619</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>918</v>
+          <t>6,96%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>11,54%</t>
+        </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4682</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>12531</v>
+          <t>2105</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>10031</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>2,25%</t>
+        </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>17126</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>10555</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>26441</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
         </is>
       </c>
     </row>
@@ -2541,70 +3677,112 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>45747</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>128387</t>
+        </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>116328</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>139797</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>24881</v>
+          <t>71,83%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>65,08%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>78,21%</t>
+        </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>404</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>171431</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>70628</v>
+          <t>163271</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>179063</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>82,46%</t>
+        </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>78,53%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>86,13%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>299818</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>284487</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>311349</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>77,54%</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>73,58%</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>80,53%</t>
         </is>
       </c>
     </row>
@@ -2612,70 +3790,112 @@
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>166</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>103286</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>12977</t>
+        </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>8471</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>18906</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>43,6%</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>232</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>122280</v>
+          <t>7,26%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>10,58%</t>
+        </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>62</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>42,35%</t>
+          <t>25166</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>52,27%</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>398</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>225566</v>
+          <t>19390</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>32110</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>12,11%</t>
+        </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>46,59%</t>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>38144</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>30426</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>47381</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>12,25%</t>
         </is>
       </c>
     </row>
@@ -2683,70 +3903,112 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>153</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>108991</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>40,42%</t>
+          <t>2104</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>8580</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>193</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>108977</v>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>4,8%</t>
+        </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>36,82%</t>
+          <t>3310</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>47,03%</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>346</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>217968</v>
+          <t>1529</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>6261</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>7940</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>4843</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>12871</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>2,05%</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
         </is>
       </c>
     </row>
@@ -2757,20 +4019,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>371</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>269636</v>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>178742</t>
+        </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>178742</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>178742</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -2778,32 +4044,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>460</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>257056</v>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>490</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>207897</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>831</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>526692</v>
+          <t>207897</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>207897</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
@@ -2816,6 +4090,36 @@
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>386639</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>386639</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>386639</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -2824,75 +4128,117 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>84085</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>11612</t>
+        </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>5963</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>20873</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>64286</v>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>918</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>162</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>148371</v>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>4940</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>12531</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>6980</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>21387</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
+          <t>4,06%</t>
         </is>
       </c>
     </row>
@@ -2900,70 +4246,112 @@
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>71307</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>45747</t>
+        </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>33365</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>58065</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>53270</v>
+          <t>16,97%</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>12,37%</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>21,53%</t>
+        </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>24881</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
-        </is>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>122</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>124577</v>
+          <t>17319</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>34413</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>9,68%</t>
+        </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>70628</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>55704</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr">
+        <is>
+          <t>87163</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>13,41%</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="W35" s="2" t="inlineStr">
+        <is>
+          <t>16,55%</t>
         </is>
       </c>
     </row>
@@ -2971,70 +4359,112 @@
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>287</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>289444</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>103286</t>
+        </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>46,74%</t>
+          <t>90346</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>118002</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>52,16%</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>414</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>466409</v>
+          <t>38,31%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>33,51%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>43,76%</t>
+        </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>55,17%</t>
+          <t>232</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>122280</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>76,85%</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>701</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>755853</v>
+          <t>109058</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>134408</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>47,57%</t>
+        </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>51,6%</t>
+          <t>42,43%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>52,29%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>70,82%</t>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>225566</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>207113</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>245095</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
+        <is>
+          <t>42,83%</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>39,32%</t>
+        </is>
+      </c>
+      <c r="W36" s="2" t="inlineStr">
+        <is>
+          <t>46,53%</t>
         </is>
       </c>
     </row>
@@ -3042,70 +4472,112 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>181</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>174486</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>8612</t>
+        </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>5082</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>14154</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>32,08%</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>381</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>261424</v>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>6306</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>41,97%</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>562</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>435910</v>
+          <t>3352</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>10866</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
+        </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>14918</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>9859</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr">
+        <is>
+          <t>21249</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="W37" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
         </is>
       </c>
     </row>
@@ -3113,216 +4585,342 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>594</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>619322</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>100379</t>
+        </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>86049</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>115561</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>953</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>845390</v>
+          <t>37,23%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>31,91%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>42,86%</t>
+        </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>181</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>102671</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>1547</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>1464712</v>
+          <t>91043</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>114502</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>39,94%</t>
+        </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>35,42%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>44,54%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>203050</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>185701</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>223385</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>38,55%</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="inlineStr">
+        <is>
+          <t>35,26%</t>
+        </is>
+      </c>
+      <c r="W38" s="2" t="inlineStr">
+        <is>
+          <t>42,41%</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
+      <c r="A39" s="1" t="n"/>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>89</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>102614</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>269636</t>
+        </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>269636</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>269636</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>49652</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>460</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>257056</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
-        </is>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>157</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>152266</v>
+          <t>257056</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>257056</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>526692</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>526692</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>526692</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>85562</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>84085</t>
+        </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>65812</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>108593</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>44909</v>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>17,53%</t>
+        </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>64286</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>31200</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>91714</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>7,6%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>148371</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>92100</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>183546</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr">
+        <is>
+          <t>10,13%</t>
+        </is>
+      </c>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
           <t>6,29%</t>
         </is>
       </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>4,84%</t>
-        </is>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
-        <is>
-          <t>8,11%</t>
-        </is>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>151</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>130470</v>
-      </c>
-      <c r="O40" s="2" t="inlineStr">
-        <is>
-          <t>7,95%</t>
-        </is>
-      </c>
-      <c r="P40" s="2" t="inlineStr">
-        <is>
-          <t>4,83%</t>
-        </is>
-      </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>9,93%</t>
+      <c r="W40" s="2" t="inlineStr">
+        <is>
+          <t>12,53%</t>
         </is>
       </c>
     </row>
@@ -3330,70 +4928,112 @@
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>328</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>525235</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>71307</t>
+        </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>56,69%</t>
+          <t>53738</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>40,21%</t>
+          <t>94496</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>79,41%</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>530</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>364426</v>
+          <t>11,51%</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>8,68%</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>15,26%</t>
+        </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>51,04%</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>48,01%</t>
+          <t>53270</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>54,55%</t>
-        </is>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>858</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>889661</v>
+          <t>24528</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>77661</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>6,3%</t>
+        </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>54,23%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>45,38%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>71,66%</t>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>124577</t>
+        </is>
+      </c>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>80100</t>
+        </is>
+      </c>
+      <c r="T41" s="2" t="inlineStr">
+        <is>
+          <t>158310</t>
+        </is>
+      </c>
+      <c r="U41" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
+        </is>
+      </c>
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
+        </is>
+      </c>
+      <c r="W41" s="2" t="inlineStr">
+        <is>
+          <t>10,81%</t>
         </is>
       </c>
     </row>
@@ -3401,70 +5041,112 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>256</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>213083</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>289444</t>
+        </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>263429</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>321307</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>32,12%</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>397</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>255049</v>
+          <t>46,74%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>42,54%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>51,88%</t>
+        </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>414</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>466409</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>38,89%</t>
-        </is>
-      </c>
-      <c r="M42" s="2" t="n">
-        <v>653</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>468132</v>
+          <t>335104</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>655752</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>55,17%</t>
+        </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>77,57%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>34,33%</t>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>755853</t>
+        </is>
+      </c>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>624566</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>1024698</t>
+        </is>
+      </c>
+      <c r="U42" s="2" t="inlineStr">
+        <is>
+          <t>51,6%</t>
+        </is>
+      </c>
+      <c r="V42" s="2" t="inlineStr">
+        <is>
+          <t>42,64%</t>
+        </is>
+      </c>
+      <c r="W42" s="2" t="inlineStr">
+        <is>
+          <t>69,96%</t>
         </is>
       </c>
     </row>
@@ -3472,145 +5154,225 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>760</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>926493</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>75873</t>
+        </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>60380</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>94683</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>1059</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>714036</v>
+          <t>12,25%</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>9,75%</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>15,29%</t>
+        </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>191</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>129431</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>1819</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>1640529</v>
+          <t>59966</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>179649</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>15,31%</t>
+        </is>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t>205304</t>
+        </is>
+      </c>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>126007</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>250961</t>
+        </is>
+      </c>
+      <c r="U43" s="2" t="inlineStr">
+        <is>
+          <t>14,02%</t>
+        </is>
+      </c>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="W43" s="2" t="inlineStr">
+        <is>
+          <t>17,13%</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A44" s="1" t="n"/>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>331</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>401516</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>98613</t>
+        </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>79337</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>120383</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>330</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>238907</v>
+          <t>15,92%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>12,81%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>19,44%</t>
+        </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>190</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>131993</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
-        </is>
-      </c>
-      <c r="M44" s="2" t="n">
-        <v>661</v>
-      </c>
-      <c r="N44" s="2" t="n">
-        <v>640422</v>
+          <t>64689</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>182113</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>15,61%</t>
+        </is>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>230607</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>139890</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>278605</t>
+        </is>
+      </c>
+      <c r="U44" s="2" t="inlineStr">
+        <is>
+          <t>15,74%</t>
+        </is>
+      </c>
+      <c r="V44" s="2" t="inlineStr">
+        <is>
+          <t>9,55%</t>
+        </is>
+      </c>
+      <c r="W44" s="2" t="inlineStr">
+        <is>
+          <t>19,02%</t>
         </is>
       </c>
     </row>
@@ -3618,141 +5380,229 @@
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>340</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>414771</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>619322</t>
+        </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>619322</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>619322</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>279</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>217074</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>953</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>845390</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
-        </is>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>619</v>
-      </c>
-      <c r="N45" s="2" t="n">
-        <v>631845</v>
+          <t>845390</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>845390</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>1547</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>1464712</t>
+        </is>
+      </c>
+      <c r="S45" s="2" t="inlineStr">
+        <is>
+          <t>1464712</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="inlineStr">
+        <is>
+          <t>1464712</t>
+        </is>
+      </c>
+      <c r="U45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n"/>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>1535</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>1568158</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>102614</t>
+        </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>45,45%</t>
+          <t>44932</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>147410</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>56,98%</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>2575</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>1810256</v>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>15,91%</t>
+        </is>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>49,55%</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>49652</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
-        </is>
-      </c>
-      <c r="M46" s="2" t="n">
-        <v>4110</v>
-      </c>
-      <c r="N46" s="2" t="n">
-        <v>3378413</v>
+          <t>38431</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>61529</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>6,95%</t>
+        </is>
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>47,56%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>44,29%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>54,09%</t>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>152266</t>
+        </is>
+      </c>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>90923</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="inlineStr">
+        <is>
+          <t>189410</t>
+        </is>
+      </c>
+      <c r="U46" s="2" t="inlineStr">
+        <is>
+          <t>9,28%</t>
+        </is>
+      </c>
+      <c r="V46" s="2" t="inlineStr">
+        <is>
+          <t>5,54%</t>
+        </is>
+      </c>
+      <c r="W46" s="2" t="inlineStr">
+        <is>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -3760,70 +5610,112 @@
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>1161</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>1066102</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>85562</t>
+        </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>30,9%</t>
+          <t>42055</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>124485</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>2167</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>1387012</v>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>13,44%</t>
+        </is>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>37,97%</t>
+          <t>64</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>44909</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
-        </is>
-      </c>
-      <c r="M47" s="2" t="n">
-        <v>3328</v>
-      </c>
-      <c r="N47" s="2" t="n">
-        <v>2453114</v>
+          <t>35189</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>58940</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
+        </is>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="R47" s="2" t="inlineStr">
+        <is>
+          <t>130470</t>
+        </is>
+      </c>
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>80928</t>
+        </is>
+      </c>
+      <c r="T47" s="2" t="inlineStr">
+        <is>
+          <t>162813</t>
+        </is>
+      </c>
+      <c r="U47" s="2" t="inlineStr">
+        <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="V47" s="2" t="inlineStr">
+        <is>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="W47" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
         </is>
       </c>
     </row>
@@ -3831,75 +5723,1138 @@
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>3367</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>3450546</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>525235</t>
+        </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>373231</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>744420</t>
         </is>
       </c>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>5351</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>3653248</v>
+          <t>56,69%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>40,28%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>80,35%</t>
+        </is>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>530</t>
         </is>
       </c>
       <c r="K48" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>364426</t>
         </is>
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v>8718</v>
-      </c>
-      <c r="N48" s="2" t="n">
-        <v>7103794</v>
+          <t>342854</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>387832</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>51,04%</t>
+        </is>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>48,02%</t>
         </is>
       </c>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>54,32%</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>858</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="inlineStr">
+        <is>
+          <t>889661</t>
+        </is>
+      </c>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>749078</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="inlineStr">
+        <is>
+          <t>1204723</t>
+        </is>
+      </c>
+      <c r="U48" s="2" t="inlineStr">
+        <is>
+          <t>54,23%</t>
+        </is>
+      </c>
+      <c r="V48" s="2" t="inlineStr">
+        <is>
+          <t>45,66%</t>
+        </is>
+      </c>
+      <c r="W48" s="2" t="inlineStr">
+        <is>
+          <t>73,44%</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>183780</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>84206</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>259471</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>19,84%</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>28,01%</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>212341</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>193031</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>233982</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>29,74%</t>
+        </is>
+      </c>
+      <c r="O49" s="2" t="inlineStr">
+        <is>
+          <t>27,03%</t>
+        </is>
+      </c>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>32,77%</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="R49" s="2" t="inlineStr">
+        <is>
+          <t>396122</t>
+        </is>
+      </c>
+      <c r="S49" s="2" t="inlineStr">
+        <is>
+          <t>237444</t>
+        </is>
+      </c>
+      <c r="T49" s="2" t="inlineStr">
+        <is>
+          <t>473193</t>
+        </is>
+      </c>
+      <c r="U49" s="2" t="inlineStr">
+        <is>
+          <t>24,15%</t>
+        </is>
+      </c>
+      <c r="V49" s="2" t="inlineStr">
+        <is>
+          <t>14,47%</t>
+        </is>
+      </c>
+      <c r="W49" s="2" t="inlineStr">
+        <is>
+          <t>28,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>29302</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>11588</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>45900</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>42708</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>32736</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>54260</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="O50" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="P50" s="2" t="inlineStr">
+        <is>
+          <t>7,6%</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="R50" s="2" t="inlineStr">
+        <is>
+          <t>72010</t>
+        </is>
+      </c>
+      <c r="S50" s="2" t="inlineStr">
+        <is>
+          <t>42199</t>
+        </is>
+      </c>
+      <c r="T50" s="2" t="inlineStr">
+        <is>
+          <t>92138</t>
+        </is>
+      </c>
+      <c r="U50" s="2" t="inlineStr">
+        <is>
+          <t>4,39%</t>
+        </is>
+      </c>
+      <c r="V50" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="W50" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>926493</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>926493</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>926493</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>1059</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>714036</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>714036</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>714036</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>1819</t>
+        </is>
+      </c>
+      <c r="R51" s="2" t="inlineStr">
+        <is>
+          <t>1640529</t>
+        </is>
+      </c>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>1640529</t>
+        </is>
+      </c>
+      <c r="T51" s="2" t="inlineStr">
+        <is>
+          <t>1640529</t>
+        </is>
+      </c>
+      <c r="U51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W51" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>401516</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>318403</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>462396</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>11,64%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>13,4%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>238907</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>194492</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>271469</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="O52" s="2" t="inlineStr">
+        <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="R52" s="2" t="inlineStr">
+        <is>
+          <t>640422</t>
+        </is>
+      </c>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>551010</t>
+        </is>
+      </c>
+      <c r="T52" s="2" t="inlineStr">
+        <is>
+          <t>713080</t>
+        </is>
+      </c>
+      <c r="U52" s="2" t="inlineStr">
+        <is>
+          <t>9,02%</t>
+        </is>
+      </c>
+      <c r="V52" s="2" t="inlineStr">
+        <is>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="W52" s="2" t="inlineStr">
+        <is>
+          <t>10,04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>414771</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>333776</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>474290</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>9,67%</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>217074</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>177890</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>249846</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="O53" s="2" t="inlineStr">
+        <is>
+          <t>4,87%</t>
+        </is>
+      </c>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="R53" s="2" t="inlineStr">
+        <is>
+          <t>631845</t>
+        </is>
+      </c>
+      <c r="S53" s="2" t="inlineStr">
+        <is>
+          <t>546604</t>
+        </is>
+      </c>
+      <c r="T53" s="2" t="inlineStr">
+        <is>
+          <t>706277</t>
+        </is>
+      </c>
+      <c r="U53" s="2" t="inlineStr">
+        <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="V53" s="2" t="inlineStr">
+        <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="W53" s="2" t="inlineStr">
+        <is>
+          <t>9,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>1535</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>1568158</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>1403834</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>2001886</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>45,45%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>40,68%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>58,02%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>2575</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>1810256</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>1672264</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>2170552</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>49,55%</t>
+        </is>
+      </c>
+      <c r="O54" s="2" t="inlineStr">
+        <is>
+          <t>45,77%</t>
+        </is>
+      </c>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>59,41%</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>4110</t>
+        </is>
+      </c>
+      <c r="R54" s="2" t="inlineStr">
+        <is>
+          <t>3378413</t>
+        </is>
+      </c>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>3116160</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="inlineStr">
+        <is>
+          <t>3872411</t>
+        </is>
+      </c>
+      <c r="U54" s="2" t="inlineStr">
+        <is>
+          <t>47,56%</t>
+        </is>
+      </c>
+      <c r="V54" s="2" t="inlineStr">
+        <is>
+          <t>43,87%</t>
+        </is>
+      </c>
+      <c r="W54" s="2" t="inlineStr">
+        <is>
+          <t>54,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>603454</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>471932</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>674553</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>17,49%</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>13,68%</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>1193</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>755648</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>620377</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>843105</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>20,68%</t>
+        </is>
+      </c>
+      <c r="O55" s="2" t="inlineStr">
+        <is>
+          <t>16,98%</t>
+        </is>
+      </c>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>23,08%</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>1848</t>
+        </is>
+      </c>
+      <c r="R55" s="2" t="inlineStr">
+        <is>
+          <t>1359102</t>
+        </is>
+      </c>
+      <c r="S55" s="2" t="inlineStr">
+        <is>
+          <t>1185873</t>
+        </is>
+      </c>
+      <c r="T55" s="2" t="inlineStr">
+        <is>
+          <t>1485947</t>
+        </is>
+      </c>
+      <c r="U55" s="2" t="inlineStr">
+        <is>
+          <t>19,13%</t>
+        </is>
+      </c>
+      <c r="V55" s="2" t="inlineStr">
+        <is>
+          <t>16,69%</t>
+        </is>
+      </c>
+      <c r="W55" s="2" t="inlineStr">
+        <is>
+          <t>20,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>506</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>462648</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>366725</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>520105</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>13,41%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>15,07%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>631364</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>514108</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>689909</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>17,28%</t>
+        </is>
+      </c>
+      <c r="O56" s="2" t="inlineStr">
+        <is>
+          <t>14,07%</t>
+        </is>
+      </c>
+      <c r="P56" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>1480</t>
+        </is>
+      </c>
+      <c r="R56" s="2" t="inlineStr">
+        <is>
+          <t>1094012</t>
+        </is>
+      </c>
+      <c r="S56" s="2" t="inlineStr">
+        <is>
+          <t>949168</t>
+        </is>
+      </c>
+      <c r="T56" s="2" t="inlineStr">
+        <is>
+          <t>1187350</t>
+        </is>
+      </c>
+      <c r="U56" s="2" t="inlineStr">
+        <is>
+          <t>15,4%</t>
+        </is>
+      </c>
+      <c r="V56" s="2" t="inlineStr">
+        <is>
+          <t>13,36%</t>
+        </is>
+      </c>
+      <c r="W56" s="2" t="inlineStr">
+        <is>
+          <t>16,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>3450546</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>3450546</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>3450546</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>5351</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>3653248</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>3653248</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>3653248</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>8718</t>
+        </is>
+      </c>
+      <c r="R57" s="2" t="inlineStr">
+        <is>
+          <t>7103794</t>
+        </is>
+      </c>
+      <c r="S57" s="2" t="inlineStr">
+        <is>
+          <t>7103794</t>
+        </is>
+      </c>
+      <c r="T57" s="2" t="inlineStr">
+        <is>
+          <t>7103794</t>
+        </is>
+      </c>
+      <c r="U57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W57" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -3907,19 +6862,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
